--- a/config_1.26/game_module_config_cjj.xlsx
+++ b/config_1.26/game_module_config_cjj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="956">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3970,6 +3970,61 @@
   </si>
   <si>
     <t>SYS_JBPManager</t>
+  </si>
+  <si>
+    <t>act_041_yybjsj</t>
+  </si>
+  <si>
+    <t>赢一把就睡觉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_015_YYBJSJManager</t>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_fkqjd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂敲金蛋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_QJD1Manager</t>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1号</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4153,7 +4208,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4257,6 +4312,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4536,13 +4603,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ311"/>
+  <dimension ref="A1:AJ313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E307" sqref="E307"/>
+      <selection pane="bottomRight" activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12645,6 +12712,60 @@
         <v>644</v>
       </c>
     </row>
+    <row r="312" spans="1:9" ht="16.5">
+      <c r="A312" s="16">
+        <v>316</v>
+      </c>
+      <c r="B312" s="35" t="s">
+        <v>948</v>
+      </c>
+      <c r="C312" s="36" t="s">
+        <v>949</v>
+      </c>
+      <c r="D312" s="35" t="s">
+        <v>950</v>
+      </c>
+      <c r="E312" s="23">
+        <v>1</v>
+      </c>
+      <c r="F312" s="23">
+        <v>1</v>
+      </c>
+      <c r="G312" s="23">
+        <v>1</v>
+      </c>
+      <c r="H312" s="23"/>
+      <c r="I312" s="37" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="17.25">
+      <c r="A313" s="16">
+        <v>317</v>
+      </c>
+      <c r="B313" s="38" t="s">
+        <v>952</v>
+      </c>
+      <c r="C313" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="D313" s="38" t="s">
+        <v>954</v>
+      </c>
+      <c r="E313" s="23">
+        <v>1</v>
+      </c>
+      <c r="F313" s="23">
+        <v>1</v>
+      </c>
+      <c r="G313" s="23">
+        <v>1</v>
+      </c>
+      <c r="H313" s="23"/>
+      <c r="I313" s="36" t="s">
+        <v>955</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H234"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_1.26/game_module_config_cjj.xlsx
+++ b/config_1.26/game_module_config_cjj.xlsx
@@ -3796,9 +3796,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_jzsjb</t>
-  </si>
-  <si>
     <t>Act_039_JZSJBManager</t>
   </si>
   <si>
@@ -4024,6 +4021,10 @@
       </rPr>
       <t>1号</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_sjb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4609,7 +4610,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C307" sqref="C307"/>
+      <selection pane="bottomRight" activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11122,7 +11123,7 @@
         <v>754</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>755</v>
@@ -11138,7 +11139,7 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12240,7 +12241,7 @@
         <v>898</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D298" s="17"/>
       <c r="E298" s="17">
@@ -12254,7 +12255,7 @@
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="15" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12346,7 +12347,7 @@
         <v>902</v>
       </c>
       <c r="C300" s="15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D300" s="18" t="s">
         <v>903</v>
@@ -12397,13 +12398,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D301" s="26" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E301" s="27">
         <v>1</v>
@@ -12416,7 +12417,7 @@
       </c>
       <c r="H301" s="27"/>
       <c r="I301" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12451,13 +12452,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="26" t="s">
+        <v>955</v>
+      </c>
+      <c r="C302" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="D302" s="26" t="s">
         <v>905</v>
-      </c>
-      <c r="C302" s="25" t="s">
-        <v>936</v>
-      </c>
-      <c r="D302" s="26" t="s">
-        <v>906</v>
       </c>
       <c r="E302" s="27">
         <v>1</v>
@@ -12470,7 +12471,7 @@
       </c>
       <c r="H302" s="27"/>
       <c r="I302" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12478,13 +12479,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="C303" s="26" t="s">
         <v>908</v>
       </c>
-      <c r="C303" s="26" t="s">
+      <c r="D303" s="26" t="s">
         <v>909</v>
-      </c>
-      <c r="D303" s="26" t="s">
-        <v>910</v>
       </c>
       <c r="E303" s="27">
         <v>1</v>
@@ -12505,13 +12506,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="C304" s="17" t="s">
         <v>911</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="D304" s="17" t="s">
         <v>912</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>913</v>
       </c>
       <c r="E304" s="17">
         <v>1</v>
@@ -12524,7 +12525,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12532,13 +12533,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C305" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="D305" s="18" t="s">
         <v>915</v>
-      </c>
-      <c r="D305" s="18" t="s">
-        <v>916</v>
       </c>
       <c r="E305" s="17">
         <v>0</v>
@@ -12551,7 +12552,7 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="15" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12559,13 +12560,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="C306" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="D306" s="18" t="s">
         <v>925</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>926</v>
       </c>
       <c r="E306" s="17">
         <v>1</v>
@@ -12578,7 +12579,7 @@
       </c>
       <c r="H306" s="17"/>
       <c r="I306" s="15" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12586,13 +12587,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="26" t="s">
+        <v>926</v>
+      </c>
+      <c r="C307" s="25" t="s">
         <v>927</v>
       </c>
-      <c r="C307" s="25" t="s">
+      <c r="D307" s="26" t="s">
         <v>928</v>
-      </c>
-      <c r="D307" s="26" t="s">
-        <v>929</v>
       </c>
       <c r="E307" s="27">
         <v>1</v>
@@ -12605,7 +12606,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12613,13 +12614,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="26" t="s">
+        <v>931</v>
+      </c>
+      <c r="C308" s="25" t="s">
         <v>932</v>
       </c>
-      <c r="C308" s="25" t="s">
+      <c r="D308" s="26" t="s">
         <v>933</v>
-      </c>
-      <c r="D308" s="26" t="s">
-        <v>934</v>
       </c>
       <c r="E308" s="27">
         <v>1</v>
@@ -12632,7 +12633,7 @@
       </c>
       <c r="H308" s="27"/>
       <c r="I308" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12640,13 +12641,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>937</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="18" t="s">
         <v>939</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>940</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12663,13 +12664,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="C310" s="25" t="s">
         <v>941</v>
       </c>
-      <c r="C310" s="25" t="s">
+      <c r="D310" s="26" t="s">
         <v>942</v>
-      </c>
-      <c r="D310" s="26" t="s">
-        <v>943</v>
       </c>
       <c r="E310" s="27">
         <v>1</v>
@@ -12682,7 +12683,7 @@
       </c>
       <c r="H310" s="27"/>
       <c r="I310" s="25" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="17.25">
@@ -12690,13 +12691,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="C311" s="25" t="s">
         <v>945</v>
       </c>
-      <c r="C311" s="25" t="s">
+      <c r="D311" s="24" t="s">
         <v>946</v>
-      </c>
-      <c r="D311" s="24" t="s">
-        <v>947</v>
       </c>
       <c r="E311" s="27">
         <v>1</v>
@@ -12717,13 +12718,13 @@
         <v>316</v>
       </c>
       <c r="B312" s="35" t="s">
+        <v>947</v>
+      </c>
+      <c r="C312" s="36" t="s">
         <v>948</v>
       </c>
-      <c r="C312" s="36" t="s">
+      <c r="D312" s="35" t="s">
         <v>949</v>
-      </c>
-      <c r="D312" s="35" t="s">
-        <v>950</v>
       </c>
       <c r="E312" s="23">
         <v>1</v>
@@ -12736,7 +12737,7 @@
       </c>
       <c r="H312" s="23"/>
       <c r="I312" s="37" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="17.25">
@@ -12744,13 +12745,13 @@
         <v>317</v>
       </c>
       <c r="B313" s="38" t="s">
+        <v>951</v>
+      </c>
+      <c r="C313" s="36" t="s">
         <v>952</v>
       </c>
-      <c r="C313" s="36" t="s">
+      <c r="D313" s="38" t="s">
         <v>953</v>
-      </c>
-      <c r="D313" s="38" t="s">
-        <v>954</v>
       </c>
       <c r="E313" s="23">
         <v>1</v>
@@ -12763,7 +12764,7 @@
       </c>
       <c r="H313" s="23"/>
       <c r="I313" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.26/game_module_config_cjj.xlsx
+++ b/config_1.26/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="961">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4024,7 +4024,39 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_sjb</t>
+    <t>act_039_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_sjb_style/act_001_ygbd</t>
+  </si>
+  <si>
+    <t>阳光榜单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1号</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4604,13 +4636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ313"/>
+  <dimension ref="A1:AJ315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C285" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C294" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B302" sqref="B302"/>
+      <selection pane="bottomRight" activeCell="E303" sqref="E303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12767,6 +12799,56 @@
         <v>954</v>
       </c>
     </row>
+    <row r="314" spans="1:9" ht="16.5">
+      <c r="A314" s="16">
+        <v>318</v>
+      </c>
+      <c r="B314" s="35" t="s">
+        <v>956</v>
+      </c>
+      <c r="C314" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="D314" s="23"/>
+      <c r="E314" s="23">
+        <v>1</v>
+      </c>
+      <c r="F314" s="23">
+        <v>1</v>
+      </c>
+      <c r="G314" s="23">
+        <v>1</v>
+      </c>
+      <c r="H314" s="23"/>
+      <c r="I314" s="36" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="16.5">
+      <c r="A315" s="16">
+        <v>319</v>
+      </c>
+      <c r="B315" s="35" t="s">
+        <v>958</v>
+      </c>
+      <c r="C315" s="36" t="s">
+        <v>959</v>
+      </c>
+      <c r="D315" s="23"/>
+      <c r="E315" s="23">
+        <v>1</v>
+      </c>
+      <c r="F315" s="23">
+        <v>1</v>
+      </c>
+      <c r="G315" s="23">
+        <v>1</v>
+      </c>
+      <c r="H315" s="23"/>
+      <c r="I315" s="36" t="s">
+        <v>960</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H234"/>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/config_1.26/game_module_config_cjj.xlsx
+++ b/config_1.26/game_module_config_cjj.xlsx
@@ -4642,7 +4642,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C294" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E303" sqref="E303"/>
+      <selection pane="bottomRight" activeCell="A310" sqref="A310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12747,7 +12747,7 @@
     </row>
     <row r="312" spans="1:9" ht="16.5">
       <c r="A312" s="16">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B312" s="35" t="s">
         <v>947</v>
@@ -12774,7 +12774,7 @@
     </row>
     <row r="313" spans="1:9" ht="17.25">
       <c r="A313" s="16">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B313" s="38" t="s">
         <v>951</v>
@@ -12801,7 +12801,7 @@
     </row>
     <row r="314" spans="1:9" ht="16.5">
       <c r="A314" s="16">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B314" s="35" t="s">
         <v>956</v>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="16">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B315" s="35" t="s">
         <v>958</v>

--- a/config_1.26/game_module_config_cjj.xlsx
+++ b/config_1.26/game_module_config_cjj.xlsx
@@ -3154,14 +3154,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>GameComAct1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1Manager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动模板1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4057,6 +4049,14 @@
       </rPr>
       <t>1号</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4639,10 +4639,10 @@
   <dimension ref="A1:AJ315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C294" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C249" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A310" sqref="A310"/>
+      <selection pane="bottomRight" activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5">
@@ -10493,7 +10493,7 @@
         <v>633</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>634</v>
@@ -10608,7 +10608,7 @@
         <v>667</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>668</v>
@@ -11024,7 +11024,7 @@
         <v>734</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>735</v>
@@ -11050,7 +11050,7 @@
         <v>739</v>
       </c>
       <c r="C253" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>740</v>
@@ -11073,13 +11073,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="25" t="s">
+        <v>959</v>
+      </c>
+      <c r="C254" s="27" t="s">
         <v>741</v>
       </c>
-      <c r="C254" s="27" t="s">
-        <v>743</v>
-      </c>
       <c r="D254" s="25" t="s">
-        <v>742</v>
+        <v>960</v>
       </c>
       <c r="E254" s="27">
         <v>1</v>
@@ -11100,25 +11100,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="D255" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C255" s="9" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="9" t="s">
         <v>747</v>
-      </c>
-      <c r="D255" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="9" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="16.5">
@@ -11126,25 +11126,25 @@
         <v>255</v>
       </c>
       <c r="B256" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="D256" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="I256" s="9" t="s">
         <v>751</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="E256">
-        <v>1</v>
-      </c>
-      <c r="F256">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>1</v>
-      </c>
-      <c r="I256" s="9" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5">
@@ -11152,13 +11152,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E257" s="17">
         <v>1</v>
@@ -11171,7 +11171,7 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11179,13 +11179,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D258" s="15" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E258" s="17">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11205,14 +11205,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C259" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="D259" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="C259" s="15" t="s">
-        <v>761</v>
-      </c>
-      <c r="D259" s="15" t="s">
-        <v>762</v>
-      </c>
       <c r="E259" s="17">
         <v>0</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11231,25 +11231,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C260" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="D260" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="E260" s="17">
+        <v>1</v>
+      </c>
+      <c r="F260" s="17">
+        <v>1</v>
+      </c>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="15" t="s">
         <v>764</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>765</v>
-      </c>
-      <c r="E260" s="17">
-        <v>1</v>
-      </c>
-      <c r="F260" s="17">
-        <v>1</v>
-      </c>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="I260" s="15" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="261" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11257,25 +11257,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="C261" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="D261" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="E261" s="17">
+        <v>0</v>
+      </c>
+      <c r="F261" s="17">
+        <v>1</v>
+      </c>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="15" t="s">
         <v>768</v>
-      </c>
-      <c r="D261" s="15" t="s">
-        <v>769</v>
-      </c>
-      <c r="E261" s="17">
-        <v>0</v>
-      </c>
-      <c r="F261" s="17">
-        <v>1</v>
-      </c>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="I261" s="15" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5">
@@ -11283,25 +11283,25 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>769</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="D262" t="s">
+        <v>770</v>
+      </c>
+      <c r="E262" s="5">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="I262" s="12" t="s">
         <v>771</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="D262" t="s">
-        <v>772</v>
-      </c>
-      <c r="E262" s="5">
-        <v>1</v>
-      </c>
-      <c r="F262">
-        <v>1</v>
-      </c>
-      <c r="G262">
-        <v>1</v>
-      </c>
-      <c r="I262" s="12" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="263" spans="1:9" ht="16.5">
@@ -11309,13 +11309,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D263" s="15" t="s">
         <v>775</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="D263" s="15" t="s">
-        <v>777</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -11335,25 +11335,25 @@
         <v>263</v>
       </c>
       <c r="B264" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="C264" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="D264" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="F264" s="17">
+        <v>0</v>
+      </c>
+      <c r="G264" s="17">
+        <v>0</v>
+      </c>
+      <c r="I264" s="15" t="s">
         <v>779</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>780</v>
-      </c>
-      <c r="E264" s="17">
-        <v>0</v>
-      </c>
-      <c r="F264" s="17">
-        <v>0</v>
-      </c>
-      <c r="G264" s="17">
-        <v>0</v>
-      </c>
-      <c r="I264" s="15" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11361,13 +11361,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C265" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="D265" s="15" t="s">
         <v>782</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>783</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>784</v>
       </c>
       <c r="E265" s="17">
         <v>0</v>
@@ -11387,25 +11387,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="C266" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="D266" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="F266" s="17">
+        <v>0</v>
+      </c>
+      <c r="G266" s="17">
+        <v>0</v>
+      </c>
+      <c r="I266" s="17" t="s">
         <v>786</v>
-      </c>
-      <c r="D266" s="15" t="s">
-        <v>787</v>
-      </c>
-      <c r="E266" s="17">
-        <v>0</v>
-      </c>
-      <c r="F266" s="17">
-        <v>0</v>
-      </c>
-      <c r="G266" s="17">
-        <v>0</v>
-      </c>
-      <c r="I266" s="17" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11413,25 +11413,25 @@
         <v>266</v>
       </c>
       <c r="B267" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>791</v>
-      </c>
       <c r="D267" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="E267" s="17">
+        <v>0</v>
+      </c>
+      <c r="F267" s="17">
+        <v>0</v>
+      </c>
+      <c r="G267" s="17">
+        <v>0</v>
+      </c>
+      <c r="I267" s="19" t="s">
         <v>790</v>
-      </c>
-      <c r="E267" s="17">
-        <v>0</v>
-      </c>
-      <c r="F267" s="17">
-        <v>0</v>
-      </c>
-      <c r="G267" s="17">
-        <v>0</v>
-      </c>
-      <c r="I267" s="19" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11439,13 +11439,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C268" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="C268" s="15" t="s">
-        <v>795</v>
-      </c>
       <c r="D268" s="18" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E268" s="17">
         <v>0</v>
@@ -11465,13 +11465,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D269" s="18" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E269" s="17">
         <v>0</v>
@@ -11491,13 +11491,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D270" s="18" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E270" s="17">
         <v>0</v>
@@ -11517,13 +11517,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="D271" s="18" t="s">
         <v>802</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="D271" s="18" t="s">
-        <v>804</v>
       </c>
       <c r="E271" s="17">
         <v>1</v>
@@ -11543,25 +11543,25 @@
         <v>271</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="C272" s="15" t="s">
-        <v>808</v>
-      </c>
       <c r="D272" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="E272" s="17">
+        <v>1</v>
+      </c>
+      <c r="F272" s="17">
+        <v>1</v>
+      </c>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="19" t="s">
         <v>807</v>
-      </c>
-      <c r="E272" s="17">
-        <v>1</v>
-      </c>
-      <c r="F272" s="17">
-        <v>1</v>
-      </c>
-      <c r="G272" s="17">
-        <v>1</v>
-      </c>
-      <c r="I272" s="19" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="273" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11569,14 +11569,14 @@
         <v>272</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="D273" s="18" t="s">
         <v>810</v>
       </c>
-      <c r="C273" s="15" t="s">
-        <v>811</v>
-      </c>
-      <c r="D273" s="18" t="s">
-        <v>812</v>
-      </c>
       <c r="E273" s="17">
         <v>1</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="19" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="274" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11595,13 +11595,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="C274" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="C274" s="15" t="s">
-        <v>816</v>
-      </c>
       <c r="D274" s="18" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E274" s="17">
         <v>1</v>
@@ -11613,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="I274" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11621,25 +11621,25 @@
         <v>274</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D275" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="E275" s="17">
+        <v>0</v>
+      </c>
+      <c r="F275" s="17">
+        <v>0</v>
+      </c>
+      <c r="G275" s="17">
+        <v>0</v>
+      </c>
+      <c r="I275" s="19" t="s">
         <v>818</v>
-      </c>
-      <c r="E275" s="17">
-        <v>0</v>
-      </c>
-      <c r="F275" s="17">
-        <v>0</v>
-      </c>
-      <c r="G275" s="17">
-        <v>0</v>
-      </c>
-      <c r="I275" s="19" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11647,25 +11647,25 @@
         <v>275</v>
       </c>
       <c r="B276" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="C276" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="D276" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="E276" s="17">
+        <v>0</v>
+      </c>
+      <c r="F276" s="17">
+        <v>1</v>
+      </c>
+      <c r="G276" s="17">
+        <v>1</v>
+      </c>
+      <c r="I276" s="19" t="s">
         <v>822</v>
-      </c>
-      <c r="C276" s="15" t="s">
-        <v>821</v>
-      </c>
-      <c r="D276" s="18" t="s">
-        <v>823</v>
-      </c>
-      <c r="E276" s="17">
-        <v>0</v>
-      </c>
-      <c r="F276" s="17">
-        <v>1</v>
-      </c>
-      <c r="G276" s="17">
-        <v>1</v>
-      </c>
-      <c r="I276" s="19" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11673,22 +11673,22 @@
         <v>276</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="C277" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="E277" s="17">
+        <v>0</v>
+      </c>
+      <c r="F277" s="17">
+        <v>1</v>
+      </c>
+      <c r="G277" s="17">
+        <v>1</v>
+      </c>
+      <c r="I277" s="19" t="s">
         <v>825</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>826</v>
-      </c>
-      <c r="E277" s="17">
-        <v>0</v>
-      </c>
-      <c r="F277" s="17">
-        <v>1</v>
-      </c>
-      <c r="G277" s="17">
-        <v>1</v>
-      </c>
-      <c r="I277" s="19" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -11696,25 +11696,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="C278" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="D278" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="E278" s="17">
+        <v>0</v>
+      </c>
+      <c r="F278" s="17">
+        <v>0</v>
+      </c>
+      <c r="G278" s="17">
+        <v>0</v>
+      </c>
+      <c r="I278" s="19" t="s">
         <v>828</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>897</v>
-      </c>
-      <c r="D278" s="18" t="s">
-        <v>829</v>
-      </c>
-      <c r="E278" s="17">
-        <v>0</v>
-      </c>
-      <c r="F278" s="17">
-        <v>0</v>
-      </c>
-      <c r="G278" s="17">
-        <v>0</v>
-      </c>
-      <c r="I278" s="19" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5">
@@ -11722,13 +11722,13 @@
         <v>278</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D279" s="18" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -11740,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="19" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5">
@@ -11748,22 +11748,22 @@
         <v>279</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C280" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="I280" s="19" t="s">
         <v>832</v>
-      </c>
-      <c r="E280">
-        <v>0</v>
-      </c>
-      <c r="F280">
-        <v>0</v>
-      </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="I280" s="19" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5">
@@ -11771,13 +11771,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D281" s="18" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5">
@@ -11797,13 +11797,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C282" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="C282" s="15" t="s">
-        <v>841</v>
-      </c>
       <c r="D282" s="18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -11815,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="16.5">
@@ -11823,13 +11823,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D283" s="18" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -11841,7 +11841,7 @@
         <v>0</v>
       </c>
       <c r="I283" s="19" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="16.5">
@@ -11849,25 +11849,25 @@
         <v>283</v>
       </c>
       <c r="B284" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="D284" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="I284" s="19" t="s">
         <v>846</v>
-      </c>
-      <c r="D284" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="E284">
-        <v>0</v>
-      </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-      <c r="I284" s="19" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="285" spans="1:9" s="32" customFormat="1" ht="16.5">
@@ -11875,13 +11875,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="31" t="s">
+        <v>854</v>
+      </c>
+      <c r="C285" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="D285" s="31" t="s">
         <v>856</v>
-      </c>
-      <c r="C285" s="32" t="s">
-        <v>857</v>
-      </c>
-      <c r="D285" s="31" t="s">
-        <v>858</v>
       </c>
       <c r="E285" s="32">
         <v>1</v>
@@ -11901,25 +11901,25 @@
         <v>285</v>
       </c>
       <c r="B286" s="32" t="s">
+        <v>851</v>
+      </c>
+      <c r="C286" s="32" t="s">
+        <v>850</v>
+      </c>
+      <c r="D286" s="31" t="s">
+        <v>852</v>
+      </c>
+      <c r="E286" s="32">
+        <v>1</v>
+      </c>
+      <c r="F286" s="32">
+        <v>1</v>
+      </c>
+      <c r="G286" s="32">
+        <v>1</v>
+      </c>
+      <c r="I286" s="32" t="s">
         <v>853</v>
-      </c>
-      <c r="C286" s="32" t="s">
-        <v>852</v>
-      </c>
-      <c r="D286" s="31" t="s">
-        <v>854</v>
-      </c>
-      <c r="E286" s="32">
-        <v>1</v>
-      </c>
-      <c r="F286" s="32">
-        <v>1</v>
-      </c>
-      <c r="G286" s="32">
-        <v>1</v>
-      </c>
-      <c r="I286" s="32" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="32" customFormat="1" ht="16.5">
@@ -11927,13 +11927,13 @@
         <v>286</v>
       </c>
       <c r="B287" s="32" t="s">
+        <v>857</v>
+      </c>
+      <c r="C287" s="32" t="s">
+        <v>858</v>
+      </c>
+      <c r="D287" s="31" t="s">
         <v>859</v>
-      </c>
-      <c r="C287" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="D287" s="31" t="s">
-        <v>861</v>
       </c>
       <c r="E287" s="32">
         <v>1</v>
@@ -11953,13 +11953,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C288" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="C288" s="30" t="s">
-        <v>864</v>
-      </c>
       <c r="D288" s="29" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E288" s="30">
         <v>0</v>
@@ -11979,13 +11979,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="D289" s="15" t="s">
         <v>865</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>866</v>
-      </c>
-      <c r="D289" s="15" t="s">
-        <v>867</v>
       </c>
       <c r="E289" s="17">
         <v>0</v>
@@ -12005,25 +12005,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="D290" s="18" t="s">
         <v>868</v>
       </c>
-      <c r="C290" s="15" t="s">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" s="19" t="s">
         <v>869</v>
-      </c>
-      <c r="D290" s="18" t="s">
-        <v>870</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-      <c r="F290">
-        <v>0</v>
-      </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-      <c r="I290" s="19" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="291" spans="1:36" s="34" customFormat="1" ht="16.5">
@@ -12031,25 +12031,25 @@
         <v>290</v>
       </c>
       <c r="B291" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="C291" s="34" t="s">
+        <v>871</v>
+      </c>
+      <c r="D291" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="C291" s="34" t="s">
+      <c r="E291" s="34">
+        <v>1</v>
+      </c>
+      <c r="F291" s="34">
+        <v>1</v>
+      </c>
+      <c r="G291" s="34">
+        <v>1</v>
+      </c>
+      <c r="I291" s="34" t="s">
         <v>873</v>
-      </c>
-      <c r="D291" s="34" t="s">
-        <v>874</v>
-      </c>
-      <c r="E291" s="34">
-        <v>1</v>
-      </c>
-      <c r="F291" s="34">
-        <v>1</v>
-      </c>
-      <c r="G291" s="34">
-        <v>1</v>
-      </c>
-      <c r="I291" s="34" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="292" spans="1:36" s="34" customFormat="1" ht="16.5">
@@ -12057,14 +12057,14 @@
         <v>291</v>
       </c>
       <c r="B292" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="C292" s="34" t="s">
+        <v>875</v>
+      </c>
+      <c r="D292" s="34" t="s">
         <v>876</v>
       </c>
-      <c r="C292" s="34" t="s">
-        <v>877</v>
-      </c>
-      <c r="D292" s="34" t="s">
-        <v>878</v>
-      </c>
       <c r="E292" s="34">
         <v>1</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="34" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="293" spans="1:36" ht="16.5">
@@ -12083,13 +12083,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="20" t="s">
+        <v>878</v>
+      </c>
+      <c r="C293" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="D293" s="20" t="s">
         <v>880</v>
-      </c>
-      <c r="C293" s="15" t="s">
-        <v>881</v>
-      </c>
-      <c r="D293" s="20" t="s">
-        <v>882</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -12109,13 +12109,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="C294" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="D294" s="20" t="s">
         <v>883</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>884</v>
-      </c>
-      <c r="D294" s="20" t="s">
-        <v>885</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -12135,13 +12135,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="18" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D295" s="18" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E295" s="17">
         <v>0</v>
@@ -12162,13 +12162,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="18" t="s">
+        <v>888</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="D296" s="18" t="s">
         <v>890</v>
-      </c>
-      <c r="C296" s="15" t="s">
-        <v>891</v>
-      </c>
-      <c r="D296" s="18" t="s">
-        <v>892</v>
       </c>
       <c r="E296" s="17">
         <v>0</v>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="H296" s="17"/>
       <c r="I296" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
@@ -12216,13 +12216,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="18" t="s">
+        <v>892</v>
+      </c>
+      <c r="C297" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="D297" s="18" t="s">
         <v>894</v>
-      </c>
-      <c r="C297" s="15" t="s">
-        <v>895</v>
-      </c>
-      <c r="D297" s="18" t="s">
-        <v>896</v>
       </c>
       <c r="E297" s="17">
         <v>0</v>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="H297" s="17"/>
       <c r="I297" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
@@ -12270,10 +12270,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D298" s="17"/>
       <c r="E298" s="17">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="15" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12322,13 +12322,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="18" t="s">
+        <v>897</v>
+      </c>
+      <c r="C299" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="D299" s="18" t="s">
         <v>899</v>
-      </c>
-      <c r="C299" s="15" t="s">
-        <v>900</v>
-      </c>
-      <c r="D299" s="18" t="s">
-        <v>901</v>
       </c>
       <c r="E299" s="17">
         <v>0</v>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="H299" s="17"/>
       <c r="I299" s="19" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
@@ -12376,13 +12376,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="18" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C300" s="15" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D300" s="18" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E300" s="17">
         <v>1</v>
@@ -12395,7 +12395,7 @@
       </c>
       <c r="H300" s="17"/>
       <c r="I300" s="19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J300" s="17"/>
       <c r="K300" s="17"/>
@@ -12430,13 +12430,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D301" s="26" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E301" s="27">
         <v>1</v>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="H301" s="27"/>
       <c r="I301" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12484,13 +12484,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="26" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D302" s="26" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E302" s="27">
         <v>1</v>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="H302" s="27"/>
       <c r="I302" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12511,13 +12511,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="26" t="s">
+        <v>905</v>
+      </c>
+      <c r="C303" s="26" t="s">
+        <v>906</v>
+      </c>
+      <c r="D303" s="26" t="s">
         <v>907</v>
-      </c>
-      <c r="C303" s="26" t="s">
-        <v>908</v>
-      </c>
-      <c r="D303" s="26" t="s">
-        <v>909</v>
       </c>
       <c r="E303" s="27">
         <v>1</v>
@@ -12538,13 +12538,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="C304" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="D304" s="17" t="s">
         <v>910</v>
-      </c>
-      <c r="C304" s="17" t="s">
-        <v>911</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>912</v>
       </c>
       <c r="E304" s="17">
         <v>1</v>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12565,13 +12565,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E305" s="17">
         <v>0</v>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="15" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12592,13 +12592,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="C306" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="D306" s="18" t="s">
         <v>923</v>
-      </c>
-      <c r="C306" s="15" t="s">
-        <v>924</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>925</v>
       </c>
       <c r="E306" s="17">
         <v>1</v>
@@ -12611,7 +12611,7 @@
       </c>
       <c r="H306" s="17"/>
       <c r="I306" s="15" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12619,13 +12619,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="26" t="s">
+        <v>924</v>
+      </c>
+      <c r="C307" s="25" t="s">
+        <v>925</v>
+      </c>
+      <c r="D307" s="26" t="s">
         <v>926</v>
-      </c>
-      <c r="C307" s="25" t="s">
-        <v>927</v>
-      </c>
-      <c r="D307" s="26" t="s">
-        <v>928</v>
       </c>
       <c r="E307" s="27">
         <v>1</v>
@@ -12638,7 +12638,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12646,13 +12646,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="26" t="s">
+        <v>929</v>
+      </c>
+      <c r="C308" s="25" t="s">
+        <v>930</v>
+      </c>
+      <c r="D308" s="26" t="s">
         <v>931</v>
-      </c>
-      <c r="C308" s="25" t="s">
-        <v>932</v>
-      </c>
-      <c r="D308" s="26" t="s">
-        <v>933</v>
       </c>
       <c r="E308" s="27">
         <v>1</v>
@@ -12665,7 +12665,7 @@
       </c>
       <c r="H308" s="27"/>
       <c r="I308" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12673,13 +12673,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>935</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="D309" s="18" t="s">
         <v>937</v>
-      </c>
-      <c r="C309" s="15" t="s">
-        <v>938</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>939</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12696,13 +12696,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="C310" s="25" t="s">
+        <v>939</v>
+      </c>
+      <c r="D310" s="26" t="s">
         <v>940</v>
-      </c>
-      <c r="C310" s="25" t="s">
-        <v>941</v>
-      </c>
-      <c r="D310" s="26" t="s">
-        <v>942</v>
       </c>
       <c r="E310" s="27">
         <v>1</v>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="H310" s="27"/>
       <c r="I310" s="25" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="17.25">
@@ -12723,13 +12723,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="C311" s="25" t="s">
+        <v>943</v>
+      </c>
+      <c r="D311" s="24" t="s">
         <v>944</v>
-      </c>
-      <c r="C311" s="25" t="s">
-        <v>945</v>
-      </c>
-      <c r="D311" s="24" t="s">
-        <v>946</v>
       </c>
       <c r="E311" s="27">
         <v>1</v>
@@ -12750,13 +12750,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="35" t="s">
+        <v>945</v>
+      </c>
+      <c r="C312" s="36" t="s">
+        <v>946</v>
+      </c>
+      <c r="D312" s="35" t="s">
         <v>947</v>
-      </c>
-      <c r="C312" s="36" t="s">
-        <v>948</v>
-      </c>
-      <c r="D312" s="35" t="s">
-        <v>949</v>
       </c>
       <c r="E312" s="23">
         <v>1</v>
@@ -12769,7 +12769,7 @@
       </c>
       <c r="H312" s="23"/>
       <c r="I312" s="37" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="17.25">
@@ -12777,13 +12777,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="38" t="s">
+        <v>949</v>
+      </c>
+      <c r="C313" s="36" t="s">
+        <v>950</v>
+      </c>
+      <c r="D313" s="38" t="s">
         <v>951</v>
-      </c>
-      <c r="C313" s="36" t="s">
-        <v>952</v>
-      </c>
-      <c r="D313" s="38" t="s">
-        <v>953</v>
       </c>
       <c r="E313" s="23">
         <v>1</v>
@@ -12796,7 +12796,7 @@
       </c>
       <c r="H313" s="23"/>
       <c r="I313" s="36" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12804,10 +12804,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="35" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C314" s="36" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="H314" s="23"/>
       <c r="I314" s="36" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12829,10 +12829,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="35" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C315" s="36" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D315" s="23"/>
       <c r="E315" s="23">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="H315" s="23"/>
       <c r="I315" s="36" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.26/game_module_config_cjj.xlsx
+++ b/config_1.26/game_module_config_cjj.xlsx
@@ -4160,7 +4160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4209,6 +4209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4241,7 +4247,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4358,6 +4364,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4639,10 +4654,10 @@
   <dimension ref="A1:AJ315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C249" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D254" sqref="D254"/>
+      <selection pane="bottomRight" activeCell="E88" sqref="E87:E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6583,29 +6598,29 @@
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5">
-      <c r="A75" s="5">
+    <row r="75" spans="1:9" s="40" customFormat="1" ht="16.5">
+      <c r="A75" s="39">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="5">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="I75" s="11" t="s">
+      <c r="E75" s="39">
+        <v>0</v>
+      </c>
+      <c r="F75" s="40">
+        <v>0</v>
+      </c>
+      <c r="G75" s="40">
+        <v>0</v>
+      </c>
+      <c r="I75" s="41" t="s">
         <v>647</v>
       </c>
     </row>
@@ -11059,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" s="9" t="s">
         <v>737</v>
@@ -11082,13 +11097,13 @@
         <v>960</v>
       </c>
       <c r="E254" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254" s="27"/>
       <c r="I254" s="25" t="s">

--- a/config_1.26/game_module_config_cjj.xlsx
+++ b/config_1.26/game_module_config_cjj.xlsx
@@ -4247,7 +4247,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4372,6 +4372,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4654,10 +4657,10 @@
   <dimension ref="A1:AJ315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E88" sqref="E87:E88"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6364,29 +6367,29 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5">
-      <c r="A66" s="5">
+    <row r="66" spans="1:9" s="40" customFormat="1" ht="16.5">
+      <c r="A66" s="39">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="5">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="I66" s="12" t="s">
+      <c r="E66" s="39">
+        <v>0</v>
+      </c>
+      <c r="F66" s="40">
+        <v>0</v>
+      </c>
+      <c r="G66" s="40">
+        <v>0</v>
+      </c>
+      <c r="I66" s="42" t="s">
         <v>645</v>
       </c>
     </row>

--- a/config_1.26/game_module_config_cjj.xlsx
+++ b/config_1.26/game_module_config_cjj.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="966">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3877,10 +3877,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_lb1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4010,22 +4006,62 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_sjb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_ty_sjb_style/act_001_ygbd</t>
-  </si>
-  <si>
     <t>阳光榜单</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_sjb_style/act_002_bzphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>爆竹排行榜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_001_ygbd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_002_bzphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月1号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月1号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_003_taiyang</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月1号</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_004_baozhu</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4041,24 +4077,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1号</t>
+      <t>8</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_task</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivityTaskManager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_TYBYDROPManager</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4162,7 +4192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4217,6 +4247,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4249,7 +4291,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4322,19 +4364,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4378,6 +4411,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4656,13 +4725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ315"/>
+  <dimension ref="A1:AJ317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C295" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D303" sqref="D303"/>
+      <selection pane="bottomRight" activeCell="B319" sqref="B319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6369,29 +6438,29 @@
         <v>647</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="40" customFormat="1" ht="16.5">
-      <c r="A66" s="39">
+    <row r="66" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A66" s="36">
         <v>65</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="39" t="s">
+      <c r="D66" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="39">
-        <v>0</v>
-      </c>
-      <c r="F66" s="40">
-        <v>0</v>
-      </c>
-      <c r="G66" s="40">
-        <v>0</v>
-      </c>
-      <c r="I66" s="42" t="s">
+      <c r="E66" s="36">
+        <v>0</v>
+      </c>
+      <c r="F66" s="37">
+        <v>0</v>
+      </c>
+      <c r="G66" s="37">
+        <v>0</v>
+      </c>
+      <c r="I66" s="39" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6603,29 +6672,29 @@
         <v>645</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="40" customFormat="1" ht="16.5">
-      <c r="A75" s="39">
+    <row r="75" spans="1:9" s="37" customFormat="1" ht="16.5">
+      <c r="A75" s="36">
         <v>74</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="36" t="s">
         <v>659</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="D75" s="39" t="s">
+      <c r="D75" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="E75" s="39">
-        <v>0</v>
-      </c>
-      <c r="F75" s="40">
-        <v>0</v>
-      </c>
-      <c r="G75" s="40">
-        <v>0</v>
-      </c>
-      <c r="I75" s="41" t="s">
+      <c r="E75" s="36">
+        <v>0</v>
+      </c>
+      <c r="F75" s="37">
+        <v>0</v>
+      </c>
+      <c r="G75" s="37">
+        <v>0</v>
+      </c>
+      <c r="I75" s="38" t="s">
         <v>647</v>
       </c>
     </row>
@@ -11092,26 +11161,26 @@
       <c r="A254" s="5">
         <v>253</v>
       </c>
-      <c r="B254" s="25" t="s">
-        <v>957</v>
-      </c>
-      <c r="C254" s="27" t="s">
+      <c r="B254" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="C254" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="D254" s="25" t="s">
-        <v>958</v>
-      </c>
-      <c r="E254" s="27">
-        <v>0</v>
-      </c>
-      <c r="F254" s="27">
-        <v>0</v>
-      </c>
-      <c r="G254" s="27">
-        <v>0</v>
-      </c>
-      <c r="H254" s="27"/>
-      <c r="I254" s="25" t="s">
+      <c r="D254" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="E254" s="25">
+        <v>0</v>
+      </c>
+      <c r="F254" s="25">
+        <v>0</v>
+      </c>
+      <c r="G254" s="25">
+        <v>0</v>
+      </c>
+      <c r="H254" s="25"/>
+      <c r="I254" s="24" t="s">
         <v>738</v>
       </c>
     </row>
@@ -11890,107 +11959,107 @@
         <v>846</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A285" s="31">
+    <row r="285" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A285" s="28">
         <v>284</v>
       </c>
-      <c r="B285" s="31" t="s">
+      <c r="B285" s="28" t="s">
         <v>854</v>
       </c>
-      <c r="C285" s="32" t="s">
+      <c r="C285" s="29" t="s">
         <v>855</v>
       </c>
-      <c r="D285" s="31" t="s">
+      <c r="D285" s="28" t="s">
         <v>856</v>
       </c>
-      <c r="E285" s="32">
-        <v>1</v>
-      </c>
-      <c r="F285" s="32">
-        <v>1</v>
-      </c>
-      <c r="G285" s="32">
-        <v>1</v>
-      </c>
-      <c r="I285" s="32" t="s">
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="29">
+        <v>1</v>
+      </c>
+      <c r="G285" s="29">
+        <v>1</v>
+      </c>
+      <c r="I285" s="29" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A286" s="31">
+    <row r="286" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A286" s="28">
         <v>285</v>
       </c>
-      <c r="B286" s="32" t="s">
+      <c r="B286" s="29" t="s">
         <v>851</v>
       </c>
-      <c r="C286" s="32" t="s">
+      <c r="C286" s="29" t="s">
         <v>850</v>
       </c>
-      <c r="D286" s="31" t="s">
+      <c r="D286" s="28" t="s">
         <v>852</v>
       </c>
-      <c r="E286" s="32">
-        <v>1</v>
-      </c>
-      <c r="F286" s="32">
-        <v>1</v>
-      </c>
-      <c r="G286" s="32">
-        <v>1</v>
-      </c>
-      <c r="I286" s="32" t="s">
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="29">
+        <v>1</v>
+      </c>
+      <c r="G286" s="29">
+        <v>1</v>
+      </c>
+      <c r="I286" s="29" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="32" customFormat="1" ht="16.5">
-      <c r="A287" s="31">
+    <row r="287" spans="1:9" s="29" customFormat="1" ht="16.5">
+      <c r="A287" s="28">
         <v>286</v>
       </c>
-      <c r="B287" s="32" t="s">
+      <c r="B287" s="29" t="s">
         <v>857</v>
       </c>
-      <c r="C287" s="32" t="s">
+      <c r="C287" s="29" t="s">
         <v>858</v>
       </c>
-      <c r="D287" s="31" t="s">
+      <c r="D287" s="28" t="s">
         <v>859</v>
       </c>
-      <c r="E287" s="32">
-        <v>1</v>
-      </c>
-      <c r="F287" s="32">
-        <v>1</v>
-      </c>
-      <c r="G287" s="32">
-        <v>1</v>
-      </c>
-      <c r="I287" s="32" t="s">
+      <c r="E287" s="29">
+        <v>1</v>
+      </c>
+      <c r="F287" s="29">
+        <v>1</v>
+      </c>
+      <c r="G287" s="29">
+        <v>1</v>
+      </c>
+      <c r="I287" s="29" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="30" customFormat="1" ht="16.5">
-      <c r="A288" s="29">
+    <row r="288" spans="1:9" s="27" customFormat="1" ht="16.5">
+      <c r="A288" s="26">
         <v>287</v>
       </c>
-      <c r="B288" s="30" t="s">
+      <c r="B288" s="27" t="s">
         <v>860</v>
       </c>
-      <c r="C288" s="30" t="s">
+      <c r="C288" s="27" t="s">
         <v>862</v>
       </c>
-      <c r="D288" s="29" t="s">
+      <c r="D288" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="E288" s="30">
-        <v>0</v>
-      </c>
-      <c r="F288" s="30">
-        <v>1</v>
-      </c>
-      <c r="G288" s="30">
-        <v>1</v>
-      </c>
-      <c r="I288" s="30" t="s">
+      <c r="E288" s="27">
+        <v>0</v>
+      </c>
+      <c r="F288" s="27">
+        <v>1</v>
+      </c>
+      <c r="G288" s="27">
+        <v>1</v>
+      </c>
+      <c r="I288" s="27" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12046,55 +12115,55 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" spans="1:36" s="34" customFormat="1" ht="16.5">
-      <c r="A291" s="33">
+    <row r="291" spans="1:36" s="31" customFormat="1" ht="16.5">
+      <c r="A291" s="30">
         <v>290</v>
       </c>
-      <c r="B291" s="34" t="s">
+      <c r="B291" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="C291" s="34" t="s">
+      <c r="C291" s="31" t="s">
         <v>871</v>
       </c>
-      <c r="D291" s="34" t="s">
+      <c r="D291" s="31" t="s">
         <v>872</v>
       </c>
-      <c r="E291" s="34">
-        <v>1</v>
-      </c>
-      <c r="F291" s="34">
-        <v>1</v>
-      </c>
-      <c r="G291" s="34">
-        <v>1</v>
-      </c>
-      <c r="I291" s="34" t="s">
+      <c r="E291" s="31">
+        <v>1</v>
+      </c>
+      <c r="F291" s="31">
+        <v>1</v>
+      </c>
+      <c r="G291" s="31">
+        <v>1</v>
+      </c>
+      <c r="I291" s="31" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="292" spans="1:36" s="34" customFormat="1" ht="16.5">
-      <c r="A292" s="33">
+    <row r="292" spans="1:36" s="31" customFormat="1" ht="16.5">
+      <c r="A292" s="30">
         <v>291</v>
       </c>
-      <c r="B292" s="34" t="s">
+      <c r="B292" s="31" t="s">
         <v>874</v>
       </c>
-      <c r="C292" s="34" t="s">
+      <c r="C292" s="31" t="s">
         <v>875</v>
       </c>
-      <c r="D292" s="34" t="s">
+      <c r="D292" s="31" t="s">
         <v>876</v>
       </c>
-      <c r="E292" s="34">
-        <v>1</v>
-      </c>
-      <c r="F292" s="34">
-        <v>1</v>
-      </c>
-      <c r="G292" s="34">
-        <v>1</v>
-      </c>
-      <c r="I292" s="34" t="s">
+      <c r="E292" s="31">
+        <v>1</v>
+      </c>
+      <c r="F292" s="31">
+        <v>1</v>
+      </c>
+      <c r="G292" s="31">
+        <v>1</v>
+      </c>
+      <c r="I292" s="31" t="s">
         <v>873</v>
       </c>
     </row>
@@ -12449,27 +12518,27 @@
       <c r="A301" s="16">
         <v>300</v>
       </c>
-      <c r="B301" s="26" t="s">
-        <v>926</v>
-      </c>
-      <c r="C301" s="25" t="s">
-        <v>932</v>
-      </c>
-      <c r="D301" s="26" t="s">
+      <c r="B301" s="40" t="s">
+        <v>956</v>
+      </c>
+      <c r="C301" s="41" t="s">
+        <v>931</v>
+      </c>
+      <c r="D301" s="40" t="s">
         <v>925</v>
       </c>
-      <c r="E301" s="27">
-        <v>1</v>
-      </c>
-      <c r="F301" s="27">
-        <v>1</v>
-      </c>
-      <c r="G301" s="27">
-        <v>1</v>
-      </c>
-      <c r="H301" s="27"/>
-      <c r="I301" s="25" t="s">
-        <v>930</v>
+      <c r="E301" s="42">
+        <v>1</v>
+      </c>
+      <c r="F301" s="42">
+        <v>1</v>
+      </c>
+      <c r="G301" s="42">
+        <v>1</v>
+      </c>
+      <c r="H301" s="42"/>
+      <c r="I301" s="41" t="s">
+        <v>929</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12503,53 +12572,53 @@
       <c r="A302" s="16">
         <v>301</v>
       </c>
-      <c r="B302" s="26" t="s">
-        <v>951</v>
-      </c>
-      <c r="C302" s="25" t="s">
-        <v>931</v>
-      </c>
-      <c r="D302" s="26" t="s">
+      <c r="B302" s="40" t="s">
+        <v>957</v>
+      </c>
+      <c r="C302" s="41" t="s">
+        <v>930</v>
+      </c>
+      <c r="D302" s="40" t="s">
         <v>903</v>
       </c>
-      <c r="E302" s="27">
-        <v>1</v>
-      </c>
-      <c r="F302" s="27">
-        <v>1</v>
-      </c>
-      <c r="G302" s="27">
-        <v>1</v>
-      </c>
-      <c r="H302" s="27"/>
-      <c r="I302" s="25" t="s">
-        <v>930</v>
+      <c r="E302" s="42">
+        <v>1</v>
+      </c>
+      <c r="F302" s="42">
+        <v>1</v>
+      </c>
+      <c r="G302" s="42">
+        <v>1</v>
+      </c>
+      <c r="H302" s="42"/>
+      <c r="I302" s="41" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
       <c r="A303" s="16">
         <v>302</v>
       </c>
-      <c r="B303" s="26" t="s">
-        <v>959</v>
-      </c>
-      <c r="C303" s="26" t="s">
+      <c r="B303" s="40" t="s">
+        <v>954</v>
+      </c>
+      <c r="C303" s="40" t="s">
         <v>905</v>
       </c>
-      <c r="D303" s="26" t="s">
-        <v>960</v>
-      </c>
-      <c r="E303" s="27">
-        <v>1</v>
-      </c>
-      <c r="F303" s="27">
-        <v>1</v>
-      </c>
-      <c r="G303" s="27">
-        <v>1</v>
-      </c>
-      <c r="H303" s="27"/>
-      <c r="I303" s="28" t="s">
+      <c r="D303" s="40" t="s">
+        <v>955</v>
+      </c>
+      <c r="E303" s="42">
+        <v>1</v>
+      </c>
+      <c r="F303" s="42">
+        <v>1</v>
+      </c>
+      <c r="G303" s="42">
+        <v>1</v>
+      </c>
+      <c r="H303" s="42"/>
+      <c r="I303" s="43" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12611,26 +12680,26 @@
       <c r="A306" s="16">
         <v>305</v>
       </c>
-      <c r="B306" s="18" t="s">
+      <c r="B306" s="46" t="s">
         <v>919</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="C306" s="47" t="s">
         <v>920</v>
       </c>
-      <c r="D306" s="18" t="s">
+      <c r="D306" s="46" t="s">
         <v>921</v>
       </c>
-      <c r="E306" s="17">
-        <v>1</v>
-      </c>
-      <c r="F306" s="17">
-        <v>1</v>
-      </c>
-      <c r="G306" s="17">
-        <v>1</v>
-      </c>
-      <c r="H306" s="17"/>
-      <c r="I306" s="15" t="s">
+      <c r="E306" s="31">
+        <v>1</v>
+      </c>
+      <c r="F306" s="31">
+        <v>1</v>
+      </c>
+      <c r="G306" s="31">
+        <v>1</v>
+      </c>
+      <c r="H306" s="31"/>
+      <c r="I306" s="47" t="s">
         <v>918</v>
       </c>
     </row>
@@ -12638,54 +12707,54 @@
       <c r="A307" s="16">
         <v>306</v>
       </c>
-      <c r="B307" s="26" t="s">
+      <c r="B307" s="46" t="s">
         <v>922</v>
       </c>
-      <c r="C307" s="25" t="s">
+      <c r="C307" s="47" t="s">
         <v>923</v>
       </c>
-      <c r="D307" s="26" t="s">
+      <c r="D307" s="46" t="s">
         <v>924</v>
       </c>
-      <c r="E307" s="27">
-        <v>1</v>
-      </c>
-      <c r="F307" s="27">
-        <v>1</v>
-      </c>
-      <c r="G307" s="27">
-        <v>1</v>
-      </c>
-      <c r="H307" s="27"/>
-      <c r="I307" s="25" t="s">
-        <v>930</v>
+      <c r="E307" s="31">
+        <v>1</v>
+      </c>
+      <c r="F307" s="31">
+        <v>1</v>
+      </c>
+      <c r="G307" s="31">
+        <v>1</v>
+      </c>
+      <c r="H307" s="31"/>
+      <c r="I307" s="47" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
       <c r="A308" s="16">
         <v>307</v>
       </c>
-      <c r="B308" s="26" t="s">
+      <c r="B308" s="46" t="s">
+        <v>926</v>
+      </c>
+      <c r="C308" s="47" t="s">
         <v>927</v>
       </c>
-      <c r="C308" s="25" t="s">
+      <c r="D308" s="46" t="s">
         <v>928</v>
       </c>
-      <c r="D308" s="26" t="s">
+      <c r="E308" s="31">
+        <v>1</v>
+      </c>
+      <c r="F308" s="31">
+        <v>1</v>
+      </c>
+      <c r="G308" s="31">
+        <v>1</v>
+      </c>
+      <c r="H308" s="31"/>
+      <c r="I308" s="47" t="s">
         <v>929</v>
-      </c>
-      <c r="E308" s="27">
-        <v>1</v>
-      </c>
-      <c r="F308" s="27">
-        <v>1</v>
-      </c>
-      <c r="G308" s="27">
-        <v>1</v>
-      </c>
-      <c r="H308" s="27"/>
-      <c r="I308" s="25" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12693,13 +12762,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="D309" s="18" t="s">
         <v>934</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>935</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12715,53 +12784,53 @@
       <c r="A310" s="16">
         <v>309</v>
       </c>
-      <c r="B310" s="24" t="s">
+      <c r="B310" s="48" t="s">
+        <v>935</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="C310" s="25" t="s">
+      <c r="D310" s="18" t="s">
         <v>937</v>
       </c>
-      <c r="D310" s="26" t="s">
+      <c r="E310" s="17">
+        <v>1</v>
+      </c>
+      <c r="F310" s="17">
+        <v>1</v>
+      </c>
+      <c r="G310" s="17">
+        <v>1</v>
+      </c>
+      <c r="H310" s="17"/>
+      <c r="I310" s="15" t="s">
         <v>938</v>
-      </c>
-      <c r="E310" s="27">
-        <v>1</v>
-      </c>
-      <c r="F310" s="27">
-        <v>1</v>
-      </c>
-      <c r="G310" s="27">
-        <v>1</v>
-      </c>
-      <c r="H310" s="27"/>
-      <c r="I310" s="25" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="17.25">
       <c r="A311" s="16">
         <v>310</v>
       </c>
-      <c r="B311" s="24" t="s">
+      <c r="B311" s="48" t="s">
+        <v>939</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="C311" s="25" t="s">
+      <c r="D311" s="48" t="s">
         <v>941</v>
       </c>
-      <c r="D311" s="24" t="s">
-        <v>942</v>
-      </c>
-      <c r="E311" s="27">
-        <v>1</v>
-      </c>
-      <c r="F311" s="27">
-        <v>1</v>
-      </c>
-      <c r="G311" s="27">
-        <v>1</v>
-      </c>
-      <c r="H311" s="27"/>
-      <c r="I311" s="28" t="s">
+      <c r="E311" s="17">
+        <v>1</v>
+      </c>
+      <c r="F311" s="17">
+        <v>1</v>
+      </c>
+      <c r="G311" s="17">
+        <v>1</v>
+      </c>
+      <c r="H311" s="17"/>
+      <c r="I311" s="19" t="s">
         <v>644</v>
       </c>
     </row>
@@ -12769,104 +12838,150 @@
       <c r="A312" s="16">
         <v>311</v>
       </c>
-      <c r="B312" s="35" t="s">
+      <c r="B312" s="32" t="s">
+        <v>942</v>
+      </c>
+      <c r="C312" s="33" t="s">
         <v>943</v>
       </c>
-      <c r="C312" s="36" t="s">
+      <c r="D312" s="32" t="s">
         <v>944</v>
       </c>
-      <c r="D312" s="35" t="s">
+      <c r="E312" s="23">
+        <v>1</v>
+      </c>
+      <c r="F312" s="23">
+        <v>1</v>
+      </c>
+      <c r="G312" s="23">
+        <v>1</v>
+      </c>
+      <c r="H312" s="23"/>
+      <c r="I312" s="34" t="s">
         <v>945</v>
-      </c>
-      <c r="E312" s="23">
-        <v>1</v>
-      </c>
-      <c r="F312" s="23">
-        <v>1</v>
-      </c>
-      <c r="G312" s="23">
-        <v>1</v>
-      </c>
-      <c r="H312" s="23"/>
-      <c r="I312" s="37" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="17.25">
       <c r="A313" s="16">
         <v>312</v>
       </c>
-      <c r="B313" s="38" t="s">
+      <c r="B313" s="35" t="s">
+        <v>946</v>
+      </c>
+      <c r="C313" s="33" t="s">
         <v>947</v>
       </c>
-      <c r="C313" s="36" t="s">
+      <c r="D313" s="35" t="s">
         <v>948</v>
       </c>
-      <c r="D313" s="38" t="s">
+      <c r="E313" s="23">
+        <v>1</v>
+      </c>
+      <c r="F313" s="23">
+        <v>1</v>
+      </c>
+      <c r="G313" s="23">
+        <v>1</v>
+      </c>
+      <c r="H313" s="23"/>
+      <c r="I313" s="33" t="s">
         <v>949</v>
-      </c>
-      <c r="E313" s="23">
-        <v>1</v>
-      </c>
-      <c r="F313" s="23">
-        <v>1</v>
-      </c>
-      <c r="G313" s="23">
-        <v>1</v>
-      </c>
-      <c r="H313" s="23"/>
-      <c r="I313" s="36" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
       <c r="A314" s="16">
         <v>313</v>
       </c>
-      <c r="B314" s="35" t="s">
-        <v>952</v>
-      </c>
-      <c r="C314" s="36" t="s">
-        <v>953</v>
-      </c>
-      <c r="D314" s="23"/>
-      <c r="E314" s="23">
-        <v>1</v>
-      </c>
-      <c r="F314" s="23">
-        <v>1</v>
-      </c>
-      <c r="G314" s="23">
-        <v>1</v>
-      </c>
-      <c r="H314" s="23"/>
-      <c r="I314" s="36" t="s">
+      <c r="B314" s="44" t="s">
+        <v>958</v>
+      </c>
+      <c r="C314" s="45" t="s">
         <v>950</v>
+      </c>
+      <c r="D314" s="45"/>
+      <c r="E314" s="45">
+        <v>1</v>
+      </c>
+      <c r="F314" s="45">
+        <v>1</v>
+      </c>
+      <c r="G314" s="45">
+        <v>1</v>
+      </c>
+      <c r="H314" s="45"/>
+      <c r="I314" s="45" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
       <c r="A315" s="16">
         <v>314</v>
       </c>
-      <c r="B315" s="35" t="s">
-        <v>954</v>
-      </c>
-      <c r="C315" s="36" t="s">
-        <v>955</v>
-      </c>
-      <c r="D315" s="23"/>
-      <c r="E315" s="23">
-        <v>1</v>
-      </c>
-      <c r="F315" s="23">
-        <v>1</v>
-      </c>
-      <c r="G315" s="23">
-        <v>1</v>
-      </c>
-      <c r="H315" s="23"/>
-      <c r="I315" s="36" t="s">
-        <v>956</v>
+      <c r="B315" s="44" t="s">
+        <v>959</v>
+      </c>
+      <c r="C315" s="45" t="s">
+        <v>951</v>
+      </c>
+      <c r="D315" s="45"/>
+      <c r="E315" s="45">
+        <v>1</v>
+      </c>
+      <c r="F315" s="45">
+        <v>1</v>
+      </c>
+      <c r="G315" s="45">
+        <v>1</v>
+      </c>
+      <c r="H315" s="45"/>
+      <c r="I315" s="45" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A316" s="16">
+        <v>315</v>
+      </c>
+      <c r="B316" s="49" t="s">
+        <v>962</v>
+      </c>
+      <c r="C316" s="50"/>
+      <c r="D316" s="50"/>
+      <c r="E316" s="50">
+        <v>1</v>
+      </c>
+      <c r="F316" s="50">
+        <v>1</v>
+      </c>
+      <c r="G316" s="50">
+        <v>1</v>
+      </c>
+      <c r="H316" s="50"/>
+      <c r="I316" s="50" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="A317" s="16">
+        <v>316</v>
+      </c>
+      <c r="B317" s="49" t="s">
+        <v>964</v>
+      </c>
+      <c r="C317" s="50"/>
+      <c r="D317" s="50"/>
+      <c r="E317" s="50">
+        <v>1</v>
+      </c>
+      <c r="F317" s="50">
+        <v>1</v>
+      </c>
+      <c r="G317" s="50">
+        <v>1</v>
+      </c>
+      <c r="H317" s="50"/>
+      <c r="I317" s="51" t="s">
+        <v>965</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.26/game_module_config_cjj.xlsx
+++ b/config_1.26/game_module_config_cjj.xlsx
@@ -3795,13 +3795,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_ty_by_drop</t>
-  </si>
-  <si>
     <t>捕鱼通用掉落活动</t>
-  </si>
-  <si>
-    <t>Act_039_TYBYDROPManager</t>
   </si>
   <si>
     <t>act_040_by_and_cjj_to_ddz_conduct</t>
@@ -4057,6 +4051,14 @@
   </si>
   <si>
     <t>ActivityTaskManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TYBYDROPManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4657,10 +4659,10 @@
   <dimension ref="A1:AJ315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C295" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomRight" activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11091,13 +11093,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C254" s="27" t="s">
         <v>741</v>
       </c>
       <c r="D254" s="25" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E254" s="27">
         <v>0</v>
@@ -11173,7 +11175,7 @@
         <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>753</v>
@@ -11189,7 +11191,7 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12291,7 +12293,7 @@
         <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D298" s="17"/>
       <c r="E298" s="17">
@@ -12305,7 +12307,7 @@
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="15" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12448,13 +12450,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D301" s="26" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E301" s="27">
         <v>1</v>
@@ -12467,7 +12469,7 @@
       </c>
       <c r="H301" s="27"/>
       <c r="I301" s="25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12502,10 +12504,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="26" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D302" s="26" t="s">
         <v>903</v>
@@ -12521,7 +12523,7 @@
       </c>
       <c r="H302" s="27"/>
       <c r="I302" s="25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12529,13 +12531,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="C303" s="26" t="s">
         <v>905</v>
       </c>
-      <c r="C303" s="26" t="s">
-        <v>906</v>
-      </c>
       <c r="D303" s="26" t="s">
-        <v>907</v>
+        <v>960</v>
       </c>
       <c r="E303" s="27">
         <v>1</v>
@@ -12556,13 +12558,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="C304" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="D304" s="17" t="s">
         <v>908</v>
-      </c>
-      <c r="C304" s="17" t="s">
-        <v>909</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>910</v>
       </c>
       <c r="E304" s="17">
         <v>1</v>
@@ -12575,7 +12577,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12583,13 +12585,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D305" s="18" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E305" s="17">
         <v>0</v>
@@ -12602,7 +12604,7 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="15" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12610,13 +12612,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="C306" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="D306" s="18" t="s">
         <v>921</v>
-      </c>
-      <c r="C306" s="15" t="s">
-        <v>922</v>
-      </c>
-      <c r="D306" s="18" t="s">
-        <v>923</v>
       </c>
       <c r="E306" s="17">
         <v>1</v>
@@ -12629,7 +12631,7 @@
       </c>
       <c r="H306" s="17"/>
       <c r="I306" s="15" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12637,13 +12639,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="26" t="s">
+        <v>922</v>
+      </c>
+      <c r="C307" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="D307" s="26" t="s">
         <v>924</v>
-      </c>
-      <c r="C307" s="25" t="s">
-        <v>925</v>
-      </c>
-      <c r="D307" s="26" t="s">
-        <v>926</v>
       </c>
       <c r="E307" s="27">
         <v>1</v>
@@ -12656,7 +12658,7 @@
       </c>
       <c r="H307" s="27"/>
       <c r="I307" s="25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12664,13 +12666,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="26" t="s">
+        <v>927</v>
+      </c>
+      <c r="C308" s="25" t="s">
+        <v>928</v>
+      </c>
+      <c r="D308" s="26" t="s">
         <v>929</v>
-      </c>
-      <c r="C308" s="25" t="s">
-        <v>930</v>
-      </c>
-      <c r="D308" s="26" t="s">
-        <v>931</v>
       </c>
       <c r="E308" s="27">
         <v>1</v>
@@ -12683,7 +12685,7 @@
       </c>
       <c r="H308" s="27"/>
       <c r="I308" s="25" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12691,13 +12693,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>933</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="D309" s="18" t="s">
         <v>935</v>
-      </c>
-      <c r="C309" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>937</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12714,13 +12716,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="C310" s="25" t="s">
+        <v>937</v>
+      </c>
+      <c r="D310" s="26" t="s">
         <v>938</v>
-      </c>
-      <c r="C310" s="25" t="s">
-        <v>939</v>
-      </c>
-      <c r="D310" s="26" t="s">
-        <v>940</v>
       </c>
       <c r="E310" s="27">
         <v>1</v>
@@ -12733,7 +12735,7 @@
       </c>
       <c r="H310" s="27"/>
       <c r="I310" s="25" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="17.25">
@@ -12741,13 +12743,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="C311" s="25" t="s">
+        <v>941</v>
+      </c>
+      <c r="D311" s="24" t="s">
         <v>942</v>
-      </c>
-      <c r="C311" s="25" t="s">
-        <v>943</v>
-      </c>
-      <c r="D311" s="24" t="s">
-        <v>944</v>
       </c>
       <c r="E311" s="27">
         <v>1</v>
@@ -12768,13 +12770,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="35" t="s">
+        <v>943</v>
+      </c>
+      <c r="C312" s="36" t="s">
+        <v>944</v>
+      </c>
+      <c r="D312" s="35" t="s">
         <v>945</v>
-      </c>
-      <c r="C312" s="36" t="s">
-        <v>946</v>
-      </c>
-      <c r="D312" s="35" t="s">
-        <v>947</v>
       </c>
       <c r="E312" s="23">
         <v>1</v>
@@ -12787,7 +12789,7 @@
       </c>
       <c r="H312" s="23"/>
       <c r="I312" s="37" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="17.25">
@@ -12795,13 +12797,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="C313" s="36" t="s">
+        <v>948</v>
+      </c>
+      <c r="D313" s="38" t="s">
         <v>949</v>
-      </c>
-      <c r="C313" s="36" t="s">
-        <v>950</v>
-      </c>
-      <c r="D313" s="38" t="s">
-        <v>951</v>
       </c>
       <c r="E313" s="23">
         <v>1</v>
@@ -12814,7 +12816,7 @@
       </c>
       <c r="H313" s="23"/>
       <c r="I313" s="36" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12822,10 +12824,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="35" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C314" s="36" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D314" s="23"/>
       <c r="E314" s="23">
@@ -12839,7 +12841,7 @@
       </c>
       <c r="H314" s="23"/>
       <c r="I314" s="36" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12847,10 +12849,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="35" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C315" s="36" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D315" s="23"/>
       <c r="E315" s="23">
@@ -12864,7 +12866,7 @@
       </c>
       <c r="H315" s="23"/>
       <c r="I315" s="36" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.26/game_module_config_cjj.xlsx
+++ b/config_1.26/game_module_config_cjj.xlsx
@@ -3788,9 +3788,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Act_039_JZSJBManager</t>
-  </si>
-  <si>
     <t>cjj互导</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3870,10 +3867,6 @@
   </si>
   <si>
     <t>Act_Ty_ZP1Manager</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Act_039_TY_BY_HHLManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4084,11 +4077,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>号</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_JZSJBManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_TY_BY_HHLManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4731,7 +4733,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C295" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B319" sqref="B319"/>
+      <selection pane="bottomRight" activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11162,13 +11164,13 @@
         <v>253</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C254" s="25" t="s">
         <v>741</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E254" s="25">
         <v>0</v>
@@ -11244,7 +11246,7 @@
         <v>752</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D257" s="15" t="s">
         <v>753</v>
@@ -11260,7 +11262,7 @@
       </c>
       <c r="H257" s="17"/>
       <c r="I257" s="15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12362,7 +12364,7 @@
         <v>896</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D298" s="17"/>
       <c r="E298" s="17">
@@ -12376,7 +12378,7 @@
       </c>
       <c r="H298" s="17"/>
       <c r="I298" s="15" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
@@ -12468,7 +12470,7 @@
         <v>900</v>
       </c>
       <c r="C300" s="15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D300" s="18" t="s">
         <v>901</v>
@@ -12519,13 +12521,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="40" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C301" s="41" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D301" s="40" t="s">
-        <v>925</v>
+        <v>965</v>
       </c>
       <c r="E301" s="42">
         <v>1</v>
@@ -12538,7 +12540,7 @@
       </c>
       <c r="H301" s="42"/>
       <c r="I301" s="41" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
@@ -12573,13 +12575,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="40" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C302" s="41" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D302" s="40" t="s">
-        <v>903</v>
+        <v>964</v>
       </c>
       <c r="E302" s="42">
         <v>1</v>
@@ -12592,7 +12594,7 @@
       </c>
       <c r="H302" s="42"/>
       <c r="I302" s="41" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="303" spans="1:36" s="17" customFormat="1" ht="16.5">
@@ -12600,13 +12602,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="40" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C303" s="40" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D303" s="40" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E303" s="42">
         <v>1</v>
@@ -12627,13 +12629,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="C304" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="C304" s="17" t="s">
+      <c r="D304" s="17" t="s">
         <v>907</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>908</v>
       </c>
       <c r="E304" s="17">
         <v>1</v>
@@ -12646,7 +12648,7 @@
       </c>
       <c r="H304" s="17"/>
       <c r="I304" s="19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="16.5">
@@ -12654,13 +12656,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C305" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="D305" s="18" t="s">
         <v>910</v>
-      </c>
-      <c r="D305" s="18" t="s">
-        <v>911</v>
       </c>
       <c r="E305" s="17">
         <v>0</v>
@@ -12673,7 +12675,7 @@
       </c>
       <c r="H305" s="17"/>
       <c r="I305" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5">
@@ -12681,13 +12683,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="46" t="s">
+        <v>918</v>
+      </c>
+      <c r="C306" s="47" t="s">
         <v>919</v>
       </c>
-      <c r="C306" s="47" t="s">
+      <c r="D306" s="46" t="s">
         <v>920</v>
-      </c>
-      <c r="D306" s="46" t="s">
-        <v>921</v>
       </c>
       <c r="E306" s="31">
         <v>1</v>
@@ -12700,7 +12702,7 @@
       </c>
       <c r="H306" s="31"/>
       <c r="I306" s="47" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5">
@@ -12708,13 +12710,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="46" t="s">
+        <v>921</v>
+      </c>
+      <c r="C307" s="47" t="s">
         <v>922</v>
       </c>
-      <c r="C307" s="47" t="s">
+      <c r="D307" s="46" t="s">
         <v>923</v>
-      </c>
-      <c r="D307" s="46" t="s">
-        <v>924</v>
       </c>
       <c r="E307" s="31">
         <v>1</v>
@@ -12727,7 +12729,7 @@
       </c>
       <c r="H307" s="31"/>
       <c r="I307" s="47" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5">
@@ -12735,13 +12737,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="46" t="s">
+        <v>924</v>
+      </c>
+      <c r="C308" s="47" t="s">
+        <v>925</v>
+      </c>
+      <c r="D308" s="46" t="s">
         <v>926</v>
-      </c>
-      <c r="C308" s="47" t="s">
-        <v>927</v>
-      </c>
-      <c r="D308" s="46" t="s">
-        <v>928</v>
       </c>
       <c r="E308" s="31">
         <v>1</v>
@@ -12754,7 +12756,7 @@
       </c>
       <c r="H308" s="31"/>
       <c r="I308" s="47" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5">
@@ -12762,13 +12764,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="D309" s="18" t="s">
         <v>932</v>
-      </c>
-      <c r="C309" s="15" t="s">
-        <v>933</v>
-      </c>
-      <c r="D309" s="18" t="s">
-        <v>934</v>
       </c>
       <c r="E309" s="17">
         <v>1</v>
@@ -12785,13 +12787,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="48" t="s">
+        <v>933</v>
+      </c>
+      <c r="C310" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="D310" s="18" t="s">
         <v>935</v>
-      </c>
-      <c r="C310" s="15" t="s">
-        <v>936</v>
-      </c>
-      <c r="D310" s="18" t="s">
-        <v>937</v>
       </c>
       <c r="E310" s="17">
         <v>1</v>
@@ -12804,7 +12806,7 @@
       </c>
       <c r="H310" s="17"/>
       <c r="I310" s="15" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="17.25">
@@ -12812,13 +12814,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="48" t="s">
+        <v>937</v>
+      </c>
+      <c r="C311" s="15" t="s">
+        <v>938</v>
+      </c>
+      <c r="D311" s="48" t="s">
         <v>939</v>
-      </c>
-      <c r="C311" s="15" t="s">
-        <v>940</v>
-      </c>
-      <c r="D311" s="48" t="s">
-        <v>941</v>
       </c>
       <c r="E311" s="17">
         <v>1</v>
@@ -12839,13 +12841,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="C312" s="33" t="s">
+        <v>941</v>
+      </c>
+      <c r="D312" s="32" t="s">
         <v>942</v>
-      </c>
-      <c r="C312" s="33" t="s">
-        <v>943</v>
-      </c>
-      <c r="D312" s="32" t="s">
-        <v>944</v>
       </c>
       <c r="E312" s="23">
         <v>1</v>
@@ -12858,7 +12860,7 @@
       </c>
       <c r="H312" s="23"/>
       <c r="I312" s="34" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="17.25">
@@ -12866,13 +12868,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="35" t="s">
+        <v>944</v>
+      </c>
+      <c r="C313" s="33" t="s">
+        <v>945</v>
+      </c>
+      <c r="D313" s="35" t="s">
         <v>946</v>
-      </c>
-      <c r="C313" s="33" t="s">
-        <v>947</v>
-      </c>
-      <c r="D313" s="35" t="s">
-        <v>948</v>
       </c>
       <c r="E313" s="23">
         <v>1</v>
@@ -12885,7 +12887,7 @@
       </c>
       <c r="H313" s="23"/>
       <c r="I313" s="33" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="16.5">
@@ -12893,10 +12895,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="44" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C314" s="45" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D314" s="45"/>
       <c r="E314" s="45">
@@ -12910,7 +12912,7 @@
       </c>
       <c r="H314" s="45"/>
       <c r="I314" s="45" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="16.5">
@@ -12918,10 +12920,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="44" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C315" s="45" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D315" s="45"/>
       <c r="E315" s="45">
@@ -12935,7 +12937,7 @@
       </c>
       <c r="H315" s="45"/>
       <c r="I315" s="45" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12943,7 +12945,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="49" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C316" s="50"/>
       <c r="D316" s="50"/>
@@ -12958,7 +12960,7 @@
       </c>
       <c r="H316" s="50"/>
       <c r="I316" s="50" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="17" customFormat="1" ht="16.5">
@@ -12966,7 +12968,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="49" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C317" s="50"/>
       <c r="D317" s="50"/>
@@ -12981,7 +12983,7 @@
       </c>
       <c r="H317" s="50"/>
       <c r="I317" s="51" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
